--- a/ResultadoEleicoesDistritos/VISEU_SÃO JOÃO DA PESQUEIRA.xlsx
+++ b/ResultadoEleicoesDistritos/VISEU_SÃO JOÃO DA PESQUEIRA.xlsx
@@ -597,64 +597,64 @@
         <v>1944</v>
       </c>
       <c r="H2" t="n">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="I2" t="n">
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="J2" t="n">
-        <v>772</v>
+        <v>783</v>
       </c>
       <c r="K2" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L2" t="n">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="M2" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="N2" t="n">
-        <v>146</v>
+        <v>167</v>
       </c>
       <c r="O2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q2" t="n">
         <v>2</v>
       </c>
       <c r="R2" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="S2" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="T2" t="n">
-        <v>160</v>
+        <v>124</v>
       </c>
       <c r="U2" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="V2" t="n">
-        <v>1238</v>
+        <v>1219</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>1245</v>
+        <v>1253</v>
       </c>
       <c r="Y2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z2" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AA2" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
